--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846B0D4-3DB0-994B-8957-C8717EC4A687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097A43A-0CCC-424B-92B8-92B3758EED1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>sequenceID</t>
   </si>
@@ -144,13 +144,43 @@
   </si>
   <si>
     <t>ap.101-serpentes-UR</t>
+  </si>
+  <si>
+    <t>MAFG</t>
+  </si>
+  <si>
+    <t>R3HDM2</t>
+  </si>
+  <si>
+    <t>INHBC</t>
+  </si>
+  <si>
+    <t>GRM5</t>
+  </si>
+  <si>
+    <t>ap.102-hyracoidae</t>
+  </si>
+  <si>
+    <t>PVT1</t>
+  </si>
+  <si>
+    <t>CCDC26</t>
+  </si>
+  <si>
+    <t>ap.105-Pytas</t>
+  </si>
+  <si>
+    <t>ap.105-ptyas</t>
+  </si>
+  <si>
+    <t>ap.105-Ptyas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,8 +227,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,13 +254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -254,18 +301,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,529 +628,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A2:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A2:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="28.1640625" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" customWidth="1"/>
-    <col min="20" max="20" width="23.83203125" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" customWidth="1"/>
+    <col min="18" max="18" width="23.83203125" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" customWidth="1"/>
+    <col min="23" max="23" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="10">
-        <v>30443409</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10">
-        <v>30443409</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>23</v>
+      <c r="W3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6">
-        <v>101</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="10">
-        <v>30443409</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>36</v>
+      <c r="W4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6">
-        <v>102</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="10">
-        <v>30443409</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>33</v>
+      <c r="W5" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6">
-        <v>103</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="10">
-        <v>30443409</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>34</v>
+      <c r="W6" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9">
+        <v>104</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="13">
+        <v>30443409</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6">
-        <v>104</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="W8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="9">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="10" t="s">
+      <c r="M9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="10">
+      <c r="R9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="13">
         <v>30443409</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>35</v>
+      <c r="T9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W9">
+    <sortCondition ref="B3:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097A43A-0CCC-424B-92B8-92B3758EED1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E31361-8AEB-4140-84BD-405255CE89EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A2:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:W9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E31361-8AEB-4140-84BD-405255CE89EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C10065-E3E2-7D4F-B7DC-9D598E1302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
   <dimension ref="A2:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C10065-E3E2-7D4F-B7DC-9D598E1302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB895A-28C9-7043-98AD-2349FA921EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
   <si>
     <t>sequenceID</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>ap.105-Ptyas</t>
+  </si>
+  <si>
+    <t>Pytas</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>Serpentes</t>
+  </si>
+  <si>
+    <t>Procavia capensis</t>
+  </si>
+  <si>
+    <t>Orycteropus afer</t>
+  </si>
+  <si>
+    <t>Sarcophilus harrisii</t>
   </si>
 </sst>
 </file>
@@ -630,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
   <dimension ref="A2:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,10 +937,10 @@
         <v>27</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S5" s="13">
         <v>30443409</v>
@@ -993,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="S6" s="13">
         <v>30443409</v>
@@ -1064,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="S7" s="13">
         <v>30443409</v>
@@ -1135,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="S8" s="13">
         <v>30443409</v>
@@ -1206,7 +1224,7 @@
         <v>29</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="S9" s="13">
         <v>30443409</v>
